--- a/総合テスト/2. カート機能/ST-C-0015_結果.xlsx
+++ b/総合テスト/2. カート機能/ST-C-0015_結果.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shogo.murata\Desktop\Cart総合結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F9814-8290-4FF0-8344-FC4A0C3908F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE90A3E-BB18-4DA2-A754-BCE726B17A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D79F4811-AACA-4039-B91F-FBD7AA8617A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="STC-0015_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
